--- a/data/trans_orig/P25C_R_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3032</v>
+        <v>2880</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12784</v>
+        <v>12324</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05096870838971356</v>
+        <v>0.05096870838971355</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02468227614177167</v>
+        <v>0.02344606168493631</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1040808654168387</v>
+        <v>0.1003389033294041</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4187</v>
+        <v>4166</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02865230131427409</v>
+        <v>0.02865230131427408</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007157964296475117</v>
+        <v>0.00738644591585497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07921365578934354</v>
+        <v>0.07881588792611804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -783,19 +783,19 @@
         <v>7775</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3594</v>
+        <v>3815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14304</v>
+        <v>14225</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04425462339248152</v>
+        <v>0.04425462339248151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0204582975512059</v>
+        <v>0.02171571697178759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08141825483567149</v>
+        <v>0.08097053530451088</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>116567</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110043</v>
+        <v>110503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119795</v>
+        <v>119947</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9490312916102865</v>
+        <v>0.9490312916102864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8959191345831607</v>
+        <v>0.8996610966705958</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9753177238582282</v>
+        <v>0.9765539383150638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -833,19 +833,19 @@
         <v>51342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48669</v>
+        <v>48690</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52478</v>
+        <v>52466</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9713476986857261</v>
+        <v>0.9713476986857259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9207863442106569</v>
+        <v>0.9211841120738818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.992842035703525</v>
+        <v>0.992613554084145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>229</v>
@@ -854,19 +854,19 @@
         <v>167907</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>161378</v>
+        <v>161457</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>172088</v>
+        <v>171867</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9557453766075185</v>
+        <v>0.9557453766075183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9185817451643284</v>
+        <v>0.9190294646954891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9795417024487942</v>
+        <v>0.9782842830282125</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>13319</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7717</v>
+        <v>7438</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22181</v>
+        <v>22239</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07788900876120503</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04512947385038552</v>
+        <v>0.04349849764189633</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.12971219966929</v>
+        <v>0.1300528339488061</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -979,19 +979,19 @@
         <v>8338</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4372</v>
+        <v>4929</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13102</v>
+        <v>13345</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09258319313087261</v>
+        <v>0.09258319313087257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04854443884055028</v>
+        <v>0.05472569231030549</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1454821922807741</v>
+        <v>0.1481756801548176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1000,19 +1000,19 @@
         <v>21657</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14353</v>
+        <v>14426</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31896</v>
+        <v>30536</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08295823663556846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0549804260154749</v>
+        <v>0.05526085753043489</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1221778981288912</v>
+        <v>0.1169706190267828</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>157681</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>148819</v>
+        <v>148761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163283</v>
+        <v>163562</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9221109912387949</v>
+        <v>0.922110991238795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8702878003307102</v>
+        <v>0.8699471660511944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9548705261496145</v>
+        <v>0.9565015023581037</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>117</v>
@@ -1050,19 +1050,19 @@
         <v>81723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76959</v>
+        <v>76716</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85689</v>
+        <v>85132</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9074168068691276</v>
+        <v>0.9074168068691273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8545178077192261</v>
+        <v>0.8518243198451826</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.95145556115945</v>
+        <v>0.9452743076896947</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>294</v>
@@ -1071,19 +1071,19 @@
         <v>239404</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>229165</v>
+        <v>230525</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>246708</v>
+        <v>246635</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9170417633644316</v>
+        <v>0.9170417633644317</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8778221018711092</v>
+        <v>0.8830293809732181</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9450195739845251</v>
+        <v>0.9447391424695651</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>18161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11255</v>
+        <v>10965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27764</v>
+        <v>26979</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1103795734249672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06840268163976918</v>
+        <v>0.06664139659881095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1687431775670618</v>
+        <v>0.1639716796902353</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1196,19 +1196,19 @@
         <v>7477</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3648</v>
+        <v>3660</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13073</v>
+        <v>13046</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0894216680907355</v>
+        <v>0.08942166809073553</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04362667669997946</v>
+        <v>0.04378002038943402</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1563535109373697</v>
+        <v>0.1560319794885778</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1217,19 +1217,19 @@
         <v>25638</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17291</v>
+        <v>16824</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36299</v>
+        <v>35851</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1033179860477128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06968281632416004</v>
+        <v>0.06780017286686081</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.146279984897826</v>
+        <v>0.1444760970063207</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>146374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>136771</v>
+        <v>137556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>153280</v>
+        <v>153570</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8896204265750327</v>
+        <v>0.8896204265750329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8312568224329385</v>
+        <v>0.8360283203097648</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.931597318360231</v>
+        <v>0.9333586034011888</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -1267,19 +1267,19 @@
         <v>76133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>70537</v>
+        <v>70564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79962</v>
+        <v>79950</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9105783319092644</v>
+        <v>0.9105783319092645</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8436464890626302</v>
+        <v>0.8439680205114222</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9563733233000206</v>
+        <v>0.9562199796105659</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>245</v>
@@ -1288,19 +1288,19 @@
         <v>222507</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>211846</v>
+        <v>212294</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>230854</v>
+        <v>231321</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8966820139522872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8537200151021741</v>
+        <v>0.8555239029936792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9303171836758403</v>
+        <v>0.932199827133139</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>11171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6578</v>
+        <v>6379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18417</v>
+        <v>19084</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05533959630083875</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03258499825298726</v>
+        <v>0.03160078221613725</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09123809427901927</v>
+        <v>0.09454240503695083</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1413,19 +1413,19 @@
         <v>13270</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8523</v>
+        <v>7898</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20035</v>
+        <v>19808</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09521804905913156</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06115603410339139</v>
+        <v>0.05667320118271529</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1437583960768717</v>
+        <v>0.1421297138336911</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1434,19 +1434,19 @@
         <v>24441</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17008</v>
+        <v>17208</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33641</v>
+        <v>33120</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07162694271368319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04984404254631954</v>
+        <v>0.05043096997720313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09858920385365709</v>
+        <v>0.09706421063215954</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>190686</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>183440</v>
+        <v>182773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195279</v>
+        <v>195478</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9446604036991612</v>
+        <v>0.9446604036991613</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9087619057209807</v>
+        <v>0.9054575949630491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9674150017470128</v>
+        <v>0.9683992177838627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>185</v>
@@ -1484,19 +1484,19 @@
         <v>126093</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>119328</v>
+        <v>119555</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130840</v>
+        <v>131465</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9047819509408684</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8562416039231285</v>
+        <v>0.8578702861663091</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9388439658966086</v>
+        <v>0.9433267988172845</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>417</v>
@@ -1505,19 +1505,19 @@
         <v>316779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>307579</v>
+        <v>308100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>324212</v>
+        <v>324012</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9283730572863169</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9014107961463428</v>
+        <v>0.9029357893678404</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9501559574536805</v>
+        <v>0.9495690300227969</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>48911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36724</v>
+        <v>37643</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63617</v>
+        <v>62916</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07408350723436667</v>
+        <v>0.07408350723436666</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05562381435797243</v>
+        <v>0.0570154865073502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09635694409280827</v>
+        <v>0.09529560687453814</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1630,19 +1630,19 @@
         <v>30599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22843</v>
+        <v>22437</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40238</v>
+        <v>39750</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08362903563916922</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06243160457059749</v>
+        <v>0.06132258797051911</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1099719240897835</v>
+        <v>0.1086380149484811</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -1651,19 +1651,19 @@
         <v>79510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64402</v>
+        <v>65486</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95920</v>
+        <v>96644</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07748725350339865</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06276297852587792</v>
+        <v>0.0638195084882839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09347919541700377</v>
+        <v>0.09418486680029235</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>611308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>596602</v>
+        <v>597303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>623495</v>
+        <v>622576</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9259164927656333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9036430559071917</v>
+        <v>0.9047043931254618</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9443761856420276</v>
+        <v>0.9429845134926499</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>479</v>
@@ -1701,19 +1701,19 @@
         <v>335291</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>325652</v>
+        <v>326140</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>343047</v>
+        <v>343453</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9163709643608309</v>
+        <v>0.9163709643608308</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8900280759102166</v>
+        <v>0.8913619850515189</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9375683954294025</v>
+        <v>0.9386774120294807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1185</v>
@@ -1722,19 +1722,19 @@
         <v>946599</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>930189</v>
+        <v>929465</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>961707</v>
+        <v>960623</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9225127464966013</v>
+        <v>0.9225127464966012</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9065208045829963</v>
+        <v>0.9058151331997082</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9372370214741222</v>
+        <v>0.9361804915117162</v>
       </c>
     </row>
     <row r="18">
